--- a/rnaSample/rnaSample_hbrown_08.12.19.xlsx
+++ b/rnaSample/rnaSample_hbrown_08.12.19.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">biosampleNumber</t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">rnaDate</t>
@@ -78,7 +78,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -100,6 +100,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -151,12 +157,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -188,7 +198,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G27"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -203,7 +213,7 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
@@ -233,25 +243,25 @@
       <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -260,38 +270,38 @@
       <c r="D2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -300,16 +310,16 @@
       <c r="D3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="3" t="n">
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -318,7 +328,7 @@
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -327,16 +337,16 @@
       <c r="D4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="n">
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -345,7 +355,7 @@
       <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -354,16 +364,16 @@
       <c r="D5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="3" t="n">
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -372,7 +382,7 @@
       <c r="A6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -381,16 +391,16 @@
       <c r="D6" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="3" t="n">
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -399,7 +409,7 @@
       <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -408,16 +418,16 @@
       <c r="D7" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="3" t="n">
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -426,7 +436,7 @@
       <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -435,16 +445,16 @@
       <c r="D8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="3" t="n">
+      <c r="G8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -453,7 +463,7 @@
       <c r="A9" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -462,16 +472,16 @@
       <c r="D9" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="3" t="n">
+      <c r="G9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -480,7 +490,7 @@
       <c r="A10" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -489,16 +499,16 @@
       <c r="D10" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="3" t="n">
+      <c r="G10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -507,7 +517,7 @@
       <c r="A11" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -516,16 +526,16 @@
       <c r="D11" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="3" t="n">
+      <c r="G11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -534,7 +544,7 @@
       <c r="A12" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -543,16 +553,16 @@
       <c r="D12" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="3" t="n">
+      <c r="G12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -561,7 +571,7 @@
       <c r="A13" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -570,16 +580,16 @@
       <c r="D13" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="3" t="n">
+      <c r="G13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -588,7 +598,7 @@
       <c r="A14" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -597,16 +607,16 @@
       <c r="D14" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="3" t="n">
+      <c r="G14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -615,7 +625,7 @@
       <c r="A15" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="0" t="n">
@@ -624,16 +634,16 @@
       <c r="D15" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="3" t="n">
+      <c r="G15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -642,7 +652,7 @@
       <c r="A16" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="0" t="n">
@@ -651,16 +661,16 @@
       <c r="D16" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="3" t="n">
+      <c r="G16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -669,7 +679,7 @@
       <c r="A17" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="0" t="n">
@@ -678,16 +688,16 @@
       <c r="D17" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="3" t="n">
+      <c r="G17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -696,7 +706,7 @@
       <c r="A18" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="0" t="n">
@@ -705,16 +715,16 @@
       <c r="D18" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="3" t="n">
+      <c r="G18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -723,7 +733,7 @@
       <c r="A19" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="0" t="n">
@@ -732,16 +742,16 @@
       <c r="D19" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="3" t="n">
+      <c r="G19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -750,7 +760,7 @@
       <c r="A20" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="0" t="n">
@@ -759,16 +769,16 @@
       <c r="D20" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="3" t="n">
+      <c r="G20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -777,7 +787,7 @@
       <c r="A21" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="0" t="n">
@@ -786,16 +796,16 @@
       <c r="D21" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="3" t="n">
+      <c r="G21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -804,7 +814,7 @@
       <c r="A22" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="0" t="n">
@@ -813,16 +823,16 @@
       <c r="D22" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="3" t="n">
+      <c r="G22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -831,7 +841,7 @@
       <c r="A23" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="0" t="n">
@@ -840,16 +850,16 @@
       <c r="D23" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="3" t="n">
+      <c r="G23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -858,7 +868,7 @@
       <c r="A24" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="0" t="n">
@@ -867,16 +877,16 @@
       <c r="D24" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="3" t="n">
+      <c r="G24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -885,7 +895,7 @@
       <c r="A25" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="0" t="n">
@@ -894,16 +904,16 @@
       <c r="D25" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="3" t="n">
+      <c r="G25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -912,7 +922,7 @@
       <c r="A26" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="0" t="n">
@@ -921,16 +931,16 @@
       <c r="D26" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="3" t="n">
+      <c r="G26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -939,7 +949,7 @@
       <c r="A27" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="0" t="n">
@@ -948,16 +958,16 @@
       <c r="D27" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="3" t="n">
+      <c r="G27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>

--- a/rnaSample/rnaSample_hbrown_08.12.19.xlsx
+++ b/rnaSample/rnaSample_hbrown_08.12.19.xlsx
@@ -78,7 +78,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -100,12 +100,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -157,16 +151,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -198,10 +188,10 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.67"/>
   </cols>
@@ -243,25 +233,25 @@
       <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -270,38 +260,37 @@
       <c r="D2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -310,17 +299,16 @@
       <c r="D3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -328,7 +316,7 @@
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -337,17 +325,16 @@
       <c r="D4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -355,7 +342,7 @@
       <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -364,17 +351,16 @@
       <c r="D5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -382,7 +368,7 @@
       <c r="A6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -391,17 +377,16 @@
       <c r="D6" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -409,7 +394,7 @@
       <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -418,17 +403,16 @@
       <c r="D7" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -436,7 +420,7 @@
       <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -445,17 +429,16 @@
       <c r="D8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -463,7 +446,7 @@
       <c r="A9" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -472,17 +455,16 @@
       <c r="D9" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -490,7 +472,7 @@
       <c r="A10" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -499,17 +481,16 @@
       <c r="D10" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -517,7 +498,7 @@
       <c r="A11" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -526,17 +507,16 @@
       <c r="D11" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -544,7 +524,7 @@
       <c r="A12" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -553,17 +533,16 @@
       <c r="D12" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -571,7 +550,7 @@
       <c r="A13" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -580,17 +559,16 @@
       <c r="D13" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -598,7 +576,7 @@
       <c r="A14" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -607,17 +585,16 @@
       <c r="D14" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -625,7 +602,7 @@
       <c r="A15" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="0" t="n">
@@ -634,17 +611,16 @@
       <c r="D15" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -652,7 +628,7 @@
       <c r="A16" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="0" t="n">
@@ -661,17 +637,16 @@
       <c r="D16" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -679,7 +654,7 @@
       <c r="A17" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="0" t="n">
@@ -688,17 +663,16 @@
       <c r="D17" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -706,7 +680,7 @@
       <c r="A18" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="0" t="n">
@@ -715,17 +689,16 @@
       <c r="D18" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -733,7 +706,7 @@
       <c r="A19" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="0" t="n">
@@ -742,17 +715,16 @@
       <c r="D19" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -760,7 +732,7 @@
       <c r="A20" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="0" t="n">
@@ -769,17 +741,16 @@
       <c r="D20" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -787,7 +758,7 @@
       <c r="A21" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="0" t="n">
@@ -796,17 +767,16 @@
       <c r="D21" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -814,7 +784,7 @@
       <c r="A22" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="0" t="n">
@@ -823,17 +793,16 @@
       <c r="D22" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -841,7 +810,7 @@
       <c r="A23" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="0" t="n">
@@ -850,17 +819,16 @@
       <c r="D23" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -868,7 +836,7 @@
       <c r="A24" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="0" t="n">
@@ -877,17 +845,16 @@
       <c r="D24" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -895,7 +862,7 @@
       <c r="A25" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="0" t="n">
@@ -904,17 +871,16 @@
       <c r="D25" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -922,7 +888,7 @@
       <c r="A26" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="0" t="n">
@@ -931,17 +897,16 @@
       <c r="D26" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -949,7 +914,7 @@
       <c r="A27" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="0" t="n">
@@ -958,17 +923,16 @@
       <c r="D27" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="3" t="b">
         <v>0</v>
       </c>
     </row>

--- a/rnaSample/rnaSample_hbrown_08.12.19.xlsx
+++ b/rnaSample/rnaSample_hbrown_08.12.19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/rnaSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDA50FF-2CF4-3F4A-8389-4AB809873B0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5294D5-31BA-2344-8912-B0FA41E34F53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="15160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="14">
   <si>
     <t>harvestDate</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>TRIzol</t>
+  </si>
+  <si>
+    <t>07.24.19</t>
   </si>
 </sst>
 </file>
@@ -428,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1170,9 +1173,685 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>7</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>8</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>9</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>11</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>12</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>13</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>14</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>15</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>16</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>17</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>18</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45">
+        <v>18</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>19</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46">
+        <v>19</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>20</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <v>20</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>21</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48">
+        <v>21</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>22</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49">
+        <v>22</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>23</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50">
+        <v>23</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>24</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51">
+        <v>24</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>25</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52">
+        <v>25</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>26</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53">
+        <v>26</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G27" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G53" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"DirectZol,Trizol"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/rnaSample/rnaSample_hbrown_08.12.19.xlsx
+++ b/rnaSample/rnaSample_hbrown_08.12.19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/rnaSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5294D5-31BA-2344-8912-B0FA41E34F53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321481E9-2855-8D43-951B-0C0C69E0727E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="15160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="15">
   <si>
     <t>harvestDate</t>
   </si>
@@ -68,14 +68,14 @@
   <si>
     <t>07.24.19</t>
   </si>
+  <si>
+    <t>False</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -116,7 +116,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -506,8 +506,8 @@
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="b">
-        <v>0</v>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -545,8 +545,8 @@
       <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="3" t="b">
-        <v>0</v>
+      <c r="H3" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -571,8 +571,8 @@
       <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="3" t="b">
-        <v>0</v>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -597,8 +597,8 @@
       <c r="G5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="3" t="b">
-        <v>0</v>
+      <c r="H5" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -623,8 +623,8 @@
       <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="3" t="b">
-        <v>0</v>
+      <c r="H6" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -649,8 +649,8 @@
       <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="3" t="b">
-        <v>0</v>
+      <c r="H7" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -675,8 +675,8 @@
       <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="3" t="b">
-        <v>0</v>
+      <c r="H8" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
@@ -701,8 +701,8 @@
       <c r="G9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="3" t="b">
-        <v>0</v>
+      <c r="H9" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -727,8 +727,8 @@
       <c r="G10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="3" t="b">
-        <v>0</v>
+      <c r="H10" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
@@ -753,8 +753,8 @@
       <c r="G11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="3" t="b">
-        <v>0</v>
+      <c r="H11" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
@@ -779,8 +779,8 @@
       <c r="G12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="3" t="b">
-        <v>0</v>
+      <c r="H12" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
@@ -805,8 +805,8 @@
       <c r="G13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="3" t="b">
-        <v>0</v>
+      <c r="H13" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
@@ -831,8 +831,8 @@
       <c r="G14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="3" t="b">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
@@ -857,8 +857,8 @@
       <c r="G15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="3" t="b">
-        <v>0</v>
+      <c r="H15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
@@ -883,8 +883,8 @@
       <c r="G16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="3" t="b">
-        <v>0</v>
+      <c r="H16" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -909,8 +909,8 @@
       <c r="G17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="3" t="b">
-        <v>0</v>
+      <c r="H17" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -935,8 +935,8 @@
       <c r="G18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="3" t="b">
-        <v>0</v>
+      <c r="H18" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -961,8 +961,8 @@
       <c r="G19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="3" t="b">
-        <v>0</v>
+      <c r="H19" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -987,8 +987,8 @@
       <c r="G20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="3" t="b">
-        <v>0</v>
+      <c r="H20" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1013,8 +1013,8 @@
       <c r="G21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="3" t="b">
-        <v>0</v>
+      <c r="H21" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1039,8 +1039,8 @@
       <c r="G22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="3" t="b">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1065,8 +1065,8 @@
       <c r="G23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="3" t="b">
-        <v>0</v>
+      <c r="H23" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1091,8 +1091,8 @@
       <c r="G24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="3" t="b">
-        <v>0</v>
+      <c r="H24" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1117,8 +1117,8 @@
       <c r="G25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="3" t="b">
-        <v>0</v>
+      <c r="H25" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1143,8 +1143,8 @@
       <c r="G26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="3" t="b">
-        <v>0</v>
+      <c r="H26" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1169,8 +1169,8 @@
       <c r="G27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="3" t="b">
-        <v>0</v>
+      <c r="H27" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1195,8 +1195,8 @@
       <c r="G28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="3" t="b">
-        <v>0</v>
+      <c r="H28" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1221,8 +1221,8 @@
       <c r="G29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="3" t="b">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1247,8 +1247,8 @@
       <c r="G30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="3" t="b">
-        <v>0</v>
+      <c r="H30" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1273,8 +1273,8 @@
       <c r="G31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="3" t="b">
-        <v>0</v>
+      <c r="H31" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1299,8 +1299,8 @@
       <c r="G32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="3" t="b">
-        <v>0</v>
+      <c r="H32" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -1325,8 +1325,8 @@
       <c r="G33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="3" t="b">
-        <v>0</v>
+      <c r="H33" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -1351,8 +1351,8 @@
       <c r="G34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H34" s="3" t="b">
-        <v>0</v>
+      <c r="H34" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1377,8 +1377,8 @@
       <c r="G35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="3" t="b">
-        <v>0</v>
+      <c r="H35" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -1403,8 +1403,8 @@
       <c r="G36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H36" s="3" t="b">
-        <v>0</v>
+      <c r="H36" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -1429,8 +1429,8 @@
       <c r="G37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="3" t="b">
-        <v>0</v>
+      <c r="H37" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -1455,8 +1455,8 @@
       <c r="G38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="3" t="b">
-        <v>0</v>
+      <c r="H38" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -1481,8 +1481,8 @@
       <c r="G39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H39" s="3" t="b">
-        <v>0</v>
+      <c r="H39" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -1507,8 +1507,8 @@
       <c r="G40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H40" s="3" t="b">
-        <v>0</v>
+      <c r="H40" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1533,8 +1533,8 @@
       <c r="G41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H41" s="3" t="b">
-        <v>0</v>
+      <c r="H41" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -1559,8 +1559,8 @@
       <c r="G42" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="3" t="b">
-        <v>0</v>
+      <c r="H42" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -1585,8 +1585,8 @@
       <c r="G43" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="3" t="b">
-        <v>0</v>
+      <c r="H43" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -1611,8 +1611,8 @@
       <c r="G44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H44" s="3" t="b">
-        <v>0</v>
+      <c r="H44" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -1637,8 +1637,8 @@
       <c r="G45" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H45" s="3" t="b">
-        <v>0</v>
+      <c r="H45" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -1663,8 +1663,8 @@
       <c r="G46" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H46" s="3" t="b">
-        <v>0</v>
+      <c r="H46" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -1689,8 +1689,8 @@
       <c r="G47" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H47" s="3" t="b">
-        <v>0</v>
+      <c r="H47" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -1715,8 +1715,8 @@
       <c r="G48" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H48" s="3" t="b">
-        <v>0</v>
+      <c r="H48" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -1741,8 +1741,8 @@
       <c r="G49" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H49" s="3" t="b">
-        <v>0</v>
+      <c r="H49" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -1767,8 +1767,8 @@
       <c r="G50" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H50" s="3" t="b">
-        <v>0</v>
+      <c r="H50" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -1793,8 +1793,8 @@
       <c r="G51" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H51" s="3" t="b">
-        <v>0</v>
+      <c r="H51" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -1819,8 +1819,8 @@
       <c r="G52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H52" s="3" t="b">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -1845,8 +1845,8 @@
       <c r="G53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H53" s="3" t="b">
-        <v>0</v>
+      <c r="H53" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/rnaSample/rnaSample_hbrown_08.12.19.xlsx
+++ b/rnaSample/rnaSample_hbrown_08.12.19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/rnaSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321481E9-2855-8D43-951B-0C0C69E0727E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD5442F-4541-4140-8279-108BAEEBE81B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="15160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25320" windowHeight="15160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="14">
   <si>
     <t>harvestDate</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>roboticRNAPrep</t>
-  </si>
-  <si>
-    <t>RIN</t>
   </si>
   <si>
     <t>07.17.19</t>
@@ -431,18 +428,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z53"/>
+  <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28:H53"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1020" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,9 +464,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -478,37 +477,37 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -517,1336 +516,1331 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8">
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9">
         <v>8</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10">
         <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12">
         <v>11</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13">
         <v>12</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14">
         <v>13</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15">
         <v>14</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16">
         <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17">
         <v>16</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18">
         <v>17</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19">
         <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20">
         <v>19</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21">
         <v>20</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22">
         <v>21</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23">
         <v>22</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24">
         <v>23</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25">
         <v>24</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26">
         <v>25</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27">
         <v>26</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29">
         <v>2</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30">
         <v>3</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31">
         <v>4</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32">
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F32">
         <v>5</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33">
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33">
         <v>6</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34">
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F34">
         <v>7</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35">
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35">
         <v>8</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36">
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F36">
         <v>9</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37">
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F37">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C38">
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F38">
         <v>11</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39">
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F39">
         <v>12</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40">
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F40">
         <v>13</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41">
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F41">
         <v>14</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42">
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F42">
         <v>15</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C43">
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F43">
         <v>16</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C44">
         <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F44">
         <v>17</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C45">
         <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F45">
         <v>18</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C46">
         <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F46">
         <v>19</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C47">
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F47">
         <v>20</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C48">
         <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F48">
         <v>21</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C49">
         <v>22</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F49">
         <v>22</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C50">
         <v>23</v>
       </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F50">
         <v>23</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C51">
         <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F51">
         <v>24</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C52">
         <v>25</v>
       </c>
       <c r="D52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F52">
         <v>25</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C53">
         <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F53">
         <v>26</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/rnaSample/rnaSample_hbrown_08.12.19.xlsx
+++ b/rnaSample/rnaSample_hbrown_08.12.19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/rnaSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD5442F-4541-4140-8279-108BAEEBE81B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9059864-9AED-F74C-ADEE-E7C7979E9D9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25320" windowHeight="15160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1184,7 +1184,7 @@
         <v>9</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>11</v>
@@ -1210,7 +1210,7 @@
         <v>9</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>11</v>
@@ -1236,7 +1236,7 @@
         <v>9</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>11</v>
@@ -1262,7 +1262,7 @@
         <v>9</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>11</v>
@@ -1288,7 +1288,7 @@
         <v>9</v>
       </c>
       <c r="F32">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>11</v>
@@ -1314,7 +1314,7 @@
         <v>9</v>
       </c>
       <c r="F33">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>11</v>
@@ -1340,7 +1340,7 @@
         <v>9</v>
       </c>
       <c r="F34">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>11</v>
@@ -1366,7 +1366,7 @@
         <v>9</v>
       </c>
       <c r="F35">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>11</v>
@@ -1392,7 +1392,7 @@
         <v>9</v>
       </c>
       <c r="F36">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>11</v>
@@ -1418,7 +1418,7 @@
         <v>9</v>
       </c>
       <c r="F37">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>11</v>
@@ -1444,7 +1444,7 @@
         <v>9</v>
       </c>
       <c r="F38">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>11</v>
@@ -1470,7 +1470,7 @@
         <v>9</v>
       </c>
       <c r="F39">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>11</v>
@@ -1496,7 +1496,7 @@
         <v>9</v>
       </c>
       <c r="F40">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>11</v>
@@ -1522,7 +1522,7 @@
         <v>9</v>
       </c>
       <c r="F41">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>11</v>
@@ -1548,7 +1548,7 @@
         <v>9</v>
       </c>
       <c r="F42">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>11</v>
@@ -1574,7 +1574,7 @@
         <v>9</v>
       </c>
       <c r="F43">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>11</v>
@@ -1600,7 +1600,7 @@
         <v>9</v>
       </c>
       <c r="F44">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>11</v>
@@ -1626,7 +1626,7 @@
         <v>9</v>
       </c>
       <c r="F45">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>11</v>
@@ -1652,7 +1652,7 @@
         <v>9</v>
       </c>
       <c r="F46">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>11</v>
@@ -1678,7 +1678,7 @@
         <v>9</v>
       </c>
       <c r="F47">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>11</v>
@@ -1704,7 +1704,7 @@
         <v>9</v>
       </c>
       <c r="F48">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>11</v>
@@ -1730,7 +1730,7 @@
         <v>9</v>
       </c>
       <c r="F49">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>11</v>
@@ -1756,7 +1756,7 @@
         <v>9</v>
       </c>
       <c r="F50">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>11</v>
@@ -1782,7 +1782,7 @@
         <v>9</v>
       </c>
       <c r="F51">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>11</v>
@@ -1808,7 +1808,7 @@
         <v>9</v>
       </c>
       <c r="F52">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>11</v>
@@ -1834,7 +1834,7 @@
         <v>9</v>
       </c>
       <c r="F53">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>11</v>

--- a/rnaSample/rnaSample_hbrown_08.12.19.xlsx
+++ b/rnaSample/rnaSample_hbrown_08.12.19.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/rnaSample/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5382D7A3-3C38-D84D-91C9-3569F700D2AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -20,74 +31,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="14">
   <si>
-    <t xml:space="preserve">harvestDate</t>
+    <t>harvestDate</t>
   </si>
   <si>
-    <t xml:space="preserve">harvester</t>
+    <t>harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">bioSampleNumber</t>
+    <t>bioSampleNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">rnaDate</t>
+    <t>rnaDate</t>
   </si>
   <si>
-    <t xml:space="preserve">rnaPreparer</t>
+    <t>rnaPreparer</t>
   </si>
   <si>
-    <t xml:space="preserve">rnaSampleNumber</t>
+    <t>rnaSampleNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">rnaPrepMethod</t>
+    <t>rnaPrepMethod</t>
   </si>
   <si>
-    <t xml:space="preserve">roboticRNAPrep</t>
+    <t>roboticRNAPrep</t>
   </si>
   <si>
-    <t xml:space="preserve">07.17.19</t>
+    <t>07.17.19</t>
   </si>
   <si>
-    <t xml:space="preserve">H.BROWN</t>
+    <t>H.BROWN</t>
   </si>
   <si>
-    <t xml:space="preserve">08.12.19</t>
+    <t>08.12.19</t>
   </si>
   <si>
-    <t xml:space="preserve">TRIzol</t>
+    <t>TRIzol</t>
+  </si>
+  <si>
+    <t>07.24.19</t>
+  </si>
+  <si>
+    <t>False</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -106,7 +104,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -114,99 +112,362 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Z27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K20" activeCellId="0" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.67"/>
+    <col min="1" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
       <c r="N1" s="1"/>
@@ -223,31 +484,30 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -263,694 +523,1340 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="H4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="H5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>6</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="H7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="H8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D9" s="0" t="s">
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>8</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="H9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="D10" s="0" t="s">
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10">
         <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="H10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D11" s="0" t="s">
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="H11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="D12" s="0" t="s">
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12">
         <v>11</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="H12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D13" s="0" t="s">
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>12</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="H13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="D14" s="0" t="s">
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14">
         <v>13</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="H14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>14</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>14</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="H15" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>15</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16">
         <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="H16" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>16</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>16</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="H17" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>17</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18">
         <v>17</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="H18" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>18</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19">
         <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="H19" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>19</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>19</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="H20" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>20</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21">
         <v>20</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="H21" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>21</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22">
         <v>21</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="H22" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>22</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23">
         <v>22</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="H23" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>23</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24">
         <v>23</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="H24" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>24</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>10</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25">
         <v>24</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="H25" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>25</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26">
         <v>25</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="H26" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>26</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27">
         <v>26</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="H27" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>27</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>28</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30">
+        <v>29</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <v>30</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32">
+        <v>31</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33">
+        <v>32</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34">
+        <v>33</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35">
+        <v>34</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36">
+        <v>35</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <v>36</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38">
+        <v>37</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39">
+        <v>38</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40">
+        <v>39</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41">
+        <v>40</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42">
+        <v>41</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43">
+        <v>42</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44">
+        <v>43</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45">
+        <v>44</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46">
+        <v>45</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47">
+        <v>46</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>47</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48">
+        <v>47</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49">
+        <v>48</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50">
+        <v>49</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51">
+        <v>50</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>51</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52">
+        <v>51</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>52</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53">
+        <v>52</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:G27" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G53" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"DirectZol,Trizol"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/rnaSample/rnaSample_hbrown_08.12.19.xlsx
+++ b/rnaSample/rnaSample_hbrown_08.12.19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/rnaSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5382D7A3-3C38-D84D-91C9-3569F700D2AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C68708E-A4D6-C543-BC8F-5061DF4E136C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/rnaSample/rnaSample_hbrown_08.12.19.xlsx
+++ b/rnaSample/rnaSample_hbrown_08.12.19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/rnaSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C68708E-A4D6-C543-BC8F-5061DF4E136C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B50E9AE-98DA-F84E-AF1F-55BEA3DF3B7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="A1:Z53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:A53"/>
+      <selection activeCell="C28" sqref="C28:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1181,7 +1181,7 @@
         <v>9</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         <v>9</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
@@ -1233,7 +1233,7 @@
         <v>9</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
@@ -1259,7 +1259,7 @@
         <v>9</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D31" t="s">
         <v>10</v>
@@ -1285,7 +1285,7 @@
         <v>9</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
@@ -1311,7 +1311,7 @@
         <v>9</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
@@ -1337,7 +1337,7 @@
         <v>9</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
         <v>10</v>
@@ -1363,7 +1363,7 @@
         <v>9</v>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>
@@ -1389,7 +1389,7 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
         <v>10</v>
@@ -1415,7 +1415,7 @@
         <v>9</v>
       </c>
       <c r="C37">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
         <v>10</v>
@@ -1441,7 +1441,7 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
         <v>10</v>
@@ -1467,7 +1467,7 @@
         <v>9</v>
       </c>
       <c r="C39">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D39" t="s">
         <v>10</v>
@@ -1493,7 +1493,7 @@
         <v>9</v>
       </c>
       <c r="C40">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
         <v>10</v>
@@ -1519,7 +1519,7 @@
         <v>9</v>
       </c>
       <c r="C41">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
         <v>10</v>
@@ -1545,7 +1545,7 @@
         <v>9</v>
       </c>
       <c r="C42">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
         <v>10</v>
@@ -1571,7 +1571,7 @@
         <v>9</v>
       </c>
       <c r="C43">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
         <v>10</v>
@@ -1597,7 +1597,7 @@
         <v>9</v>
       </c>
       <c r="C44">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D44" t="s">
         <v>10</v>
@@ -1623,7 +1623,7 @@
         <v>9</v>
       </c>
       <c r="C45">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
@@ -1649,7 +1649,7 @@
         <v>9</v>
       </c>
       <c r="C46">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D46" t="s">
         <v>10</v>
@@ -1675,7 +1675,7 @@
         <v>9</v>
       </c>
       <c r="C47">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D47" t="s">
         <v>10</v>
@@ -1701,7 +1701,7 @@
         <v>9</v>
       </c>
       <c r="C48">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D48" t="s">
         <v>10</v>
@@ -1727,7 +1727,7 @@
         <v>9</v>
       </c>
       <c r="C49">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D49" t="s">
         <v>10</v>
@@ -1753,7 +1753,7 @@
         <v>9</v>
       </c>
       <c r="C50">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D50" t="s">
         <v>10</v>
@@ -1779,7 +1779,7 @@
         <v>9</v>
       </c>
       <c r="C51">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D51" t="s">
         <v>10</v>
@@ -1805,7 +1805,7 @@
         <v>9</v>
       </c>
       <c r="C52">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D52" t="s">
         <v>10</v>
@@ -1831,7 +1831,7 @@
         <v>9</v>
       </c>
       <c r="C53">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D53" t="s">
         <v>10</v>
